--- a/public/master/sample_tps3r.xlsx
+++ b/public/master/sample_tps3r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9141988-5310-442D-8838-EC644F12A252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927D6F2-2C7A-4A92-A625-8077929E11D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
+    <workbookView xWindow="5145" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -45,40 +45,43 @@
     <t>sungai TEBELIAN</t>
   </si>
   <si>
+    <t>KEBERFUNGSIAN</t>
+  </si>
+  <si>
+    <t>Berfungsi</t>
+  </si>
+  <si>
+    <t>Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
+    <t>KELURAHAN/DESA</t>
+  </si>
+  <si>
+    <t>JUMLAH TIMBULAN SAMPAH (TON/HARI)</t>
+  </si>
+  <si>
+    <t>JUMLAH PENDUDUK</t>
+  </si>
+  <si>
+    <t>JUMLAH KK TERLAYANI</t>
+  </si>
+  <si>
+    <t>GEROBAK</t>
+  </si>
+  <si>
+    <t>MOTOR RODA TIGA</t>
+  </si>
+  <si>
+    <t>LUAS (M2)</t>
+  </si>
+  <si>
     <t>MASTER FORM IMPORT TPS3R</t>
   </si>
   <si>
-    <t>KEBERFUNGSIAN</t>
-  </si>
-  <si>
-    <t>Berfungsi</t>
-  </si>
-  <si>
-    <t>Tidak Berfungsi</t>
-  </si>
-  <si>
-    <t>KECAMATAN</t>
-  </si>
-  <si>
-    <t>KELURAHAN/DESA</t>
-  </si>
-  <si>
-    <t>JUMLAH TIMBULAN SAMPAH (TON/HARI)</t>
-  </si>
-  <si>
-    <t>JUMLAH PENDUDUK</t>
-  </si>
-  <si>
-    <t>JUMLAH KK TERLAYANI</t>
-  </si>
-  <si>
-    <t>GEROBAK</t>
-  </si>
-  <si>
-    <t>MOTOR RODA TIGA</t>
-  </si>
-  <si>
-    <t>LUAS (M2)</t>
+    <t>KEBERFUNGSIAN :</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -189,9 +192,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,7 +512,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -577,13 +577,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
@@ -591,23 +591,23 @@
       <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/master/sample_tps3r.xlsx
+++ b/public/master/sample_tps3r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen3\Desktop\SANITASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927D6F2-2C7A-4A92-A625-8077929E11D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5583C3-CBE3-4148-9C38-E82FEE112EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1AA180D-F767-4128-BE13-8806895311ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
